--- a/datatest/EditMiniAppMember.xlsx
+++ b/datatest/EditMiniAppMember.xlsx
@@ -7,14 +7,21 @@
     <workbookView windowHeight="15740"/>
   </bookViews>
   <sheets>
-    <sheet name="SheetEditMember" sheetId="1" r:id="rId1"/>
+    <sheet name="MiniAppFolder" sheetId="2" r:id="rId1"/>
+    <sheet name="SheetEditMember" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>miniappname</t>
+  </si>
+  <si>
+    <t>Nam Test</t>
+  </si>
   <si>
     <t>username</t>
   </si>
@@ -46,8 +53,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -59,6 +66,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -67,8 +96,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,11 +125,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,112 +209,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -212,187 +219,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +417,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,7 +426,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,21 +446,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -461,15 +453,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +468,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,148 +515,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -981,10 +988,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="21.609375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -996,46 +1033,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>

--- a/datatest/EditMiniAppMember.xlsx
+++ b/datatest/EditMiniAppMember.xlsx
@@ -4,24 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15740"/>
+    <workbookView windowHeight="16340"/>
   </bookViews>
   <sheets>
-    <sheet name="MiniAppFolder" sheetId="2" r:id="rId1"/>
-    <sheet name="SheetEditMember" sheetId="1" r:id="rId2"/>
+    <sheet name="SheetEditMember" sheetId="1" r:id="rId1"/>
+    <sheet name="InLineErrorContent" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>miniappname</t>
-  </si>
-  <si>
-    <t>Nam Test</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -32,19 +26,49 @@
     <t>code</t>
   </si>
   <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>0909872013</t>
   </si>
   <si>
+    <t>MiniApp Viewer</t>
+  </si>
+  <si>
     <t>0909872929</t>
   </si>
   <si>
+    <t>MiniApp Developer</t>
+  </si>
+  <si>
     <t>namho.QC.1996@gmail.com</t>
   </si>
   <si>
+    <t>MiniApp Admin</t>
+  </si>
+  <si>
     <t>namisnotexit@gmail.com</t>
   </si>
   <si>
     <t>0909872</t>
+  </si>
+  <si>
+    <t>0909872012</t>
+  </si>
+  <si>
+    <t>ErrorContent</t>
+  </si>
+  <si>
+    <t>Email or phone number is required</t>
+  </si>
+  <si>
+    <t>Member is already added</t>
+  </si>
+  <si>
+    <t>Please input valid email or phone number</t>
   </si>
 </sst>
 </file>
@@ -52,9 +76,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -66,23 +90,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,9 +106,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,89 +122,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,12 +136,103 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -225,13 +249,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,13 +339,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,145 +387,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,15 +434,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,17 +461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -474,9 +478,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,17 +526,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,148 +539,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -669,6 +693,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,25 +1015,84 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.609375" customWidth="1"/>
+    <col min="1" max="1" width="23.4375" customWidth="1"/>
+    <col min="2" max="2" width="30.1953125" customWidth="1"/>
+    <col min="3" max="3" width="14.1953125" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1018,64 +1104,36 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="23.4375" customWidth="1"/>
-    <col min="2" max="2" width="30.1953125" customWidth="1"/>
-    <col min="3" max="3" width="14.1953125" customWidth="1"/>
+    <col min="1" max="1" width="36.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
